--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.6076090210126</v>
+        <v>17.306265</v>
       </c>
       <c r="H2">
-        <v>12.6076090210126</v>
+        <v>51.918795</v>
       </c>
       <c r="I2">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988408</v>
       </c>
       <c r="J2">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988407</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.914234845940354</v>
+        <v>0.9225163333333333</v>
       </c>
       <c r="N2">
-        <v>0.914234845940354</v>
+        <v>2.767549</v>
       </c>
       <c r="O2">
-        <v>0.1194974150611198</v>
+        <v>0.1157072327300135</v>
       </c>
       <c r="P2">
-        <v>0.1194974150611198</v>
+        <v>0.1157072327300135</v>
       </c>
       <c r="Q2">
-        <v>11.52631549100167</v>
+        <v>15.965312131495</v>
       </c>
       <c r="R2">
-        <v>11.52631549100167</v>
+        <v>143.687809183455</v>
       </c>
       <c r="S2">
-        <v>0.05648001461509485</v>
+        <v>0.06321281136997269</v>
       </c>
       <c r="T2">
-        <v>0.05648001461509485</v>
+        <v>0.06321281136997269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.6076090210126</v>
+        <v>17.306265</v>
       </c>
       <c r="H3">
-        <v>12.6076090210126</v>
+        <v>51.918795</v>
       </c>
       <c r="I3">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988408</v>
       </c>
       <c r="J3">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988407</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.93357089031962</v>
+        <v>4.062688333333334</v>
       </c>
       <c r="N3">
-        <v>3.93357089031962</v>
+        <v>12.188065</v>
       </c>
       <c r="O3">
-        <v>0.5141474922336629</v>
+        <v>0.5095654217806198</v>
       </c>
       <c r="P3">
-        <v>0.5141474922336629</v>
+        <v>0.5095654217806198</v>
       </c>
       <c r="Q3">
-        <v>49.5929238415862</v>
+        <v>70.309960909075</v>
       </c>
       <c r="R3">
-        <v>49.5929238415862</v>
+        <v>632.7896481816751</v>
       </c>
       <c r="S3">
-        <v>0.2430099250332648</v>
+        <v>0.2783841781337806</v>
       </c>
       <c r="T3">
-        <v>0.2430099250332648</v>
+        <v>0.2783841781337805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6076090210126</v>
+        <v>17.306265</v>
       </c>
       <c r="H4">
-        <v>12.6076090210126</v>
+        <v>51.918795</v>
       </c>
       <c r="I4">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988408</v>
       </c>
       <c r="J4">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988407</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.80286056035194</v>
+        <v>2.987644666666667</v>
       </c>
       <c r="N4">
-        <v>2.80286056035194</v>
+        <v>8.962934000000001</v>
       </c>
       <c r="O4">
-        <v>0.3663550927052174</v>
+        <v>0.3747273454893666</v>
       </c>
       <c r="P4">
-        <v>0.3663550927052174</v>
+        <v>0.3747273454893666</v>
       </c>
       <c r="Q4">
-        <v>35.33737008533355</v>
+        <v>51.70497032717</v>
       </c>
       <c r="R4">
-        <v>35.33737008533355</v>
+        <v>465.3447329445301</v>
       </c>
       <c r="S4">
-        <v>0.173156389866022</v>
+        <v>0.2047198644950875</v>
       </c>
       <c r="T4">
-        <v>0.173156389866022</v>
+        <v>0.2047198644950874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.27971176858846</v>
+        <v>3.344413333333334</v>
       </c>
       <c r="H5">
-        <v>3.27971176858846</v>
+        <v>10.03324</v>
       </c>
       <c r="I5">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="J5">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.914234845940354</v>
+        <v>0.9225163333333333</v>
       </c>
       <c r="N5">
-        <v>0.914234845940354</v>
+        <v>2.767549</v>
       </c>
       <c r="O5">
-        <v>0.1194974150611198</v>
+        <v>0.1157072327300135</v>
       </c>
       <c r="P5">
-        <v>0.1194974150611198</v>
+        <v>0.1157072327300135</v>
       </c>
       <c r="Q5">
-        <v>2.998426783484236</v>
+        <v>3.085275925417778</v>
       </c>
       <c r="R5">
-        <v>2.998426783484236</v>
+        <v>27.76748332876</v>
       </c>
       <c r="S5">
-        <v>0.01469256925039837</v>
+        <v>0.01221579405973626</v>
       </c>
       <c r="T5">
-        <v>0.01469256925039837</v>
+        <v>0.01221579405973626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.27971176858846</v>
+        <v>3.344413333333334</v>
       </c>
       <c r="H6">
-        <v>3.27971176858846</v>
+        <v>10.03324</v>
       </c>
       <c r="I6">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="J6">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.93357089031962</v>
+        <v>4.062688333333334</v>
       </c>
       <c r="N6">
-        <v>3.93357089031962</v>
+        <v>12.188065</v>
       </c>
       <c r="O6">
-        <v>0.5141474922336629</v>
+        <v>0.5095654217806198</v>
       </c>
       <c r="P6">
-        <v>0.5141474922336629</v>
+        <v>0.5095654217806198</v>
       </c>
       <c r="Q6">
-        <v>12.90097874155824</v>
+        <v>13.58730903117778</v>
       </c>
       <c r="R6">
-        <v>12.90097874155824</v>
+        <v>122.2857812806</v>
       </c>
       <c r="S6">
-        <v>0.0632159920003123</v>
+        <v>0.05379738245887588</v>
       </c>
       <c r="T6">
-        <v>0.0632159920003123</v>
+        <v>0.05379738245887587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.27971176858846</v>
+        <v>3.344413333333334</v>
       </c>
       <c r="H7">
-        <v>3.27971176858846</v>
+        <v>10.03324</v>
       </c>
       <c r="I7">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="J7">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.80286056035194</v>
+        <v>2.987644666666667</v>
       </c>
       <c r="N7">
-        <v>2.80286056035194</v>
+        <v>8.962934000000001</v>
       </c>
       <c r="O7">
-        <v>0.3663550927052174</v>
+        <v>0.3747273454893666</v>
       </c>
       <c r="P7">
-        <v>0.3663550927052174</v>
+        <v>0.3747273454893666</v>
       </c>
       <c r="Q7">
-        <v>9.192574765498701</v>
+        <v>9.991918658462223</v>
       </c>
       <c r="R7">
-        <v>9.192574765498701</v>
+        <v>89.92726792616001</v>
       </c>
       <c r="S7">
-        <v>0.04504446867787401</v>
+        <v>0.03956184910005503</v>
       </c>
       <c r="T7">
-        <v>0.04504446867787401</v>
+        <v>0.03956184910005502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7871887405295</v>
+        <v>11.02739433333333</v>
       </c>
       <c r="H8">
-        <v>10.7871887405295</v>
+        <v>33.082183</v>
       </c>
       <c r="I8">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824922</v>
       </c>
       <c r="J8">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824921</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.914234845940354</v>
+        <v>0.9225163333333333</v>
       </c>
       <c r="N8">
-        <v>0.914234845940354</v>
+        <v>2.767549</v>
       </c>
       <c r="O8">
-        <v>0.1194974150611198</v>
+        <v>0.1157072327300135</v>
       </c>
       <c r="P8">
-        <v>0.1194974150611198</v>
+        <v>0.1157072327300135</v>
       </c>
       <c r="Q8">
-        <v>9.862023836327507</v>
+        <v>10.17295138660744</v>
       </c>
       <c r="R8">
-        <v>9.862023836327507</v>
+        <v>91.55656247946699</v>
       </c>
       <c r="S8">
-        <v>0.04832483119562657</v>
+        <v>0.04027862730030458</v>
       </c>
       <c r="T8">
-        <v>0.04832483119562657</v>
+        <v>0.04027862730030458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7871887405295</v>
+        <v>11.02739433333333</v>
       </c>
       <c r="H9">
-        <v>10.7871887405295</v>
+        <v>33.082183</v>
       </c>
       <c r="I9">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824922</v>
       </c>
       <c r="J9">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824921</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.93357089031962</v>
+        <v>4.062688333333334</v>
       </c>
       <c r="N9">
-        <v>3.93357089031962</v>
+        <v>12.188065</v>
       </c>
       <c r="O9">
-        <v>0.5141474922336629</v>
+        <v>0.5095654217806198</v>
       </c>
       <c r="P9">
-        <v>0.5141474922336629</v>
+        <v>0.5095654217806198</v>
       </c>
       <c r="Q9">
-        <v>42.4321716181304</v>
+        <v>44.80086630509945</v>
       </c>
       <c r="R9">
-        <v>42.4321716181304</v>
+        <v>403.2077967458951</v>
       </c>
       <c r="S9">
-        <v>0.2079215752000858</v>
+        <v>0.1773838611879634</v>
       </c>
       <c r="T9">
-        <v>0.2079215752000858</v>
+        <v>0.1773838611879634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.7871887405295</v>
+        <v>11.02739433333333</v>
       </c>
       <c r="H10">
-        <v>10.7871887405295</v>
+        <v>33.082183</v>
       </c>
       <c r="I10">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824922</v>
       </c>
       <c r="J10">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824921</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.80286056035194</v>
+        <v>2.987644666666667</v>
       </c>
       <c r="N10">
-        <v>2.80286056035194</v>
+        <v>8.962934000000001</v>
       </c>
       <c r="O10">
-        <v>0.3663550927052174</v>
+        <v>0.3747273454893666</v>
       </c>
       <c r="P10">
-        <v>0.3663550927052174</v>
+        <v>0.3747273454893666</v>
       </c>
       <c r="Q10">
-        <v>30.23498587790265</v>
+        <v>32.94593586721356</v>
       </c>
       <c r="R10">
-        <v>30.23498587790265</v>
+        <v>296.513422804922</v>
       </c>
       <c r="S10">
-        <v>0.1481542341613214</v>
+        <v>0.1304456318942242</v>
       </c>
       <c r="T10">
-        <v>0.1481542341613214</v>
+        <v>0.1304456318942241</v>
       </c>
     </row>
   </sheetData>
